--- a/docs/Mapping_casi_uso/cittadinanza/Citt_046.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_046.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="104">
   <si>
     <t>Sezione</t>
   </si>
@@ -276,15 +276,6 @@
   </si>
   <si>
     <t>flagFirmatario</t>
-  </si>
-  <si>
-    <t>Dati Perdita Cittadinanza</t>
-  </si>
-  <si>
-    <t>Motivazione Perdita Cittadinanza</t>
-  </si>
-  <si>
-    <t>motivoPerditaCittadinanza</t>
   </si>
   <si>
     <t>Autorità mittente</t>
@@ -391,17 +382,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="30.75" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="16.73828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="30.6875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.65234375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="24.953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -1213,13 +1204,13 @@
         <v>89</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>9</v>
@@ -1227,19 +1218,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>9</v>
@@ -1247,19 +1238,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>9</v>
@@ -1267,19 +1258,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>9</v>
@@ -1287,19 +1278,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>9</v>
@@ -1307,19 +1298,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>9</v>
@@ -1327,41 +1318,21 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F48" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_046.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_046.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="112">
   <si>
     <t>Sezione</t>
   </si>
@@ -284,7 +284,7 @@
     <t>Data formazione documento</t>
   </si>
   <si>
-    <t>evento.trascrizioneCittadinanza.attoEstero.enteEstero</t>
+    <t>evento.trascrizioneCittadinanza.atto.enteEstero</t>
   </si>
   <si>
     <t>dataTrascrizione</t>
@@ -302,6 +302,18 @@
     <t>nomeEnte</t>
   </si>
   <si>
+    <t>Stato ente</t>
+  </si>
+  <si>
+    <t>nazioneEnte</t>
+  </si>
+  <si>
+    <t>Stato ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeNazioneEnte</t>
+  </si>
+  <si>
     <t>Provincia ente</t>
   </si>
   <si>
@@ -324,6 +336,18 @@
   </si>
   <si>
     <t>nomeComuneEnte</t>
+  </si>
+  <si>
+    <t>Anagrafica Consolato</t>
+  </si>
+  <si>
+    <t>idAnagraficaConsolato</t>
+  </si>
+  <si>
+    <t>Anagrafica Consolato - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeAnagraficaConsolato</t>
   </si>
 </sst>
 </file>
@@ -382,17 +406,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="16.73828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="30.6875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="31.9609375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="49.65234375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="43.9609375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -1204,7 +1228,7 @@
         <v>89</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>90</v>
@@ -1284,7 +1308,7 @@
         <v>98</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>90</v>
@@ -1304,7 +1328,7 @@
         <v>100</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>90</v>
@@ -1333,6 +1357,86 @@
         <v>103</v>
       </c>
       <c r="F47" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_046.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_046.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="114">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -75,6 +78,9 @@
   </si>
   <si>
     <t>numeroatto</t>
+  </si>
+  <si>
+    <t>obbligatoria</t>
   </si>
   <si>
     <t>Data formazione</t>
@@ -406,7 +412,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -418,6 +424,7 @@
     <col min="4" max="4" width="43.9609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -439,125 +446,146 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -579,865 +607,997 @@
       <c r="F8" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G8" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="E42" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_046.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_046.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -424,7 +424,7 @@
     <col min="4" max="4" width="43.9609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_046.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_046.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="115">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,40 +32,43 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Copia del decreto da trascrivere</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>193.12</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Copia del decreto da trascrivere</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>193.12</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -608,996 +611,996 @@
         <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_046.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_046.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="117">
   <si>
     <t>Sezione</t>
   </si>
@@ -213,6 +213,12 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalità</t>
@@ -415,7 +421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1082,7 +1088,7 @@
         <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>45</v>
@@ -1174,7 +1180,7 @@
         <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>45</v>
@@ -1289,7 +1295,7 @@
         <v>85</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>45</v>
@@ -1352,19 +1358,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1375,16 +1381,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>96</v>
@@ -1398,7 +1404,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>97</v>
@@ -1407,7 +1413,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>98</v>
@@ -1421,7 +1427,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>99</v>
@@ -1430,7 +1436,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>100</v>
@@ -1444,7 +1450,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>101</v>
@@ -1453,7 +1459,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>102</v>
@@ -1467,16 +1473,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>104</v>
@@ -1490,7 +1496,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>105</v>
@@ -1499,7 +1505,7 @@
         <v>14</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>106</v>
@@ -1513,7 +1519,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>107</v>
@@ -1522,7 +1528,7 @@
         <v>14</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>108</v>
@@ -1536,7 +1542,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>109</v>
@@ -1545,7 +1551,7 @@
         <v>14</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>110</v>
@@ -1559,7 +1565,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>111</v>
@@ -1568,7 +1574,7 @@
         <v>14</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>112</v>
@@ -1582,7 +1588,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>113</v>
@@ -1591,7 +1597,7 @@
         <v>14</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>114</v>
@@ -1600,6 +1606,29 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>23</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_046.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_046.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="140">
   <si>
     <t>Sezione</t>
   </si>
@@ -155,6 +155,9 @@
     <t>cognome</t>
   </si>
   <si>
+    <t>evento.trascrizioneCittadinanza.flagCambioGeneralita,=,true</t>
+  </si>
+  <si>
     <t>Nome</t>
   </si>
   <si>
@@ -293,6 +296,63 @@
     <t>flagFirmatario</t>
   </si>
   <si>
+    <t>Intestatario (vecchie generalità)</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneCittadinanza.intestatarioVecchieGeneralita</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneCittadinanza.flagCambioGeneralita,=,false</t>
+  </si>
+  <si>
+    <t>Stato di nascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>Provincia di nascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>Comune di nascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>Nazionalita</t>
+  </si>
+  <si>
+    <t>Nazionalita - Descrizione</t>
+  </si>
+  <si>
+    <t>Stato di residenza</t>
+  </si>
+  <si>
+    <t>Stato di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>Provincia di residenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>Comune di residenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>Indirizzo di residenza</t>
+  </si>
+  <si>
+    <t>Intestatario (nuove generalità)</t>
+  </si>
+  <si>
     <t>Autorità mittente</t>
   </si>
   <si>
@@ -363,6 +423,15 @@
   </si>
   <si>
     <t>nomeAnagraficaConsolato</t>
+  </si>
+  <si>
+    <t>Dettagli evento</t>
+  </si>
+  <si>
+    <t>Cambio Cognome e/o Nome</t>
+  </si>
+  <si>
+    <t>flagCambioGeneralita</t>
   </si>
 </sst>
 </file>
@@ -421,19 +490,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16.73828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="31.9609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="29.484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.41796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="43.9609375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="56.62109375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="55.74609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -847,7 +916,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
@@ -855,22 +924,22 @@
         <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="20">
@@ -878,7 +947,7 @@
         <v>43</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>14</v>
@@ -887,13 +956,13 @@
         <v>45</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21">
@@ -901,7 +970,7 @@
         <v>43</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
@@ -910,13 +979,13 @@
         <v>45</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22">
@@ -924,7 +993,7 @@
         <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
@@ -933,13 +1002,13 @@
         <v>45</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23">
@@ -947,7 +1016,7 @@
         <v>43</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
@@ -956,13 +1025,13 @@
         <v>45</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24">
@@ -970,7 +1039,7 @@
         <v>43</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
@@ -979,13 +1048,13 @@
         <v>45</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25">
@@ -993,7 +1062,7 @@
         <v>43</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>14</v>
@@ -1002,13 +1071,13 @@
         <v>45</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26">
@@ -1016,7 +1085,7 @@
         <v>43</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>14</v>
@@ -1025,13 +1094,13 @@
         <v>45</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27">
@@ -1039,7 +1108,7 @@
         <v>43</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>14</v>
@@ -1048,13 +1117,13 @@
         <v>45</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28">
@@ -1062,7 +1131,7 @@
         <v>43</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>14</v>
@@ -1071,13 +1140,13 @@
         <v>45</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29">
@@ -1085,7 +1154,7 @@
         <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>14</v>
@@ -1094,13 +1163,13 @@
         <v>45</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30">
@@ -1108,7 +1177,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
@@ -1117,13 +1186,13 @@
         <v>45</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31">
@@ -1131,7 +1200,7 @@
         <v>43</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
@@ -1140,13 +1209,13 @@
         <v>45</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32">
@@ -1154,7 +1223,7 @@
         <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
@@ -1163,13 +1232,13 @@
         <v>45</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33">
@@ -1177,7 +1246,7 @@
         <v>43</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
@@ -1186,13 +1255,13 @@
         <v>45</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34">
@@ -1200,7 +1269,7 @@
         <v>43</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>14</v>
@@ -1209,13 +1278,13 @@
         <v>45</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35">
@@ -1223,7 +1292,7 @@
         <v>43</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>14</v>
@@ -1232,13 +1301,13 @@
         <v>45</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36">
@@ -1246,7 +1315,7 @@
         <v>43</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>14</v>
@@ -1255,13 +1324,13 @@
         <v>45</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37">
@@ -1269,7 +1338,7 @@
         <v>43</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>14</v>
@@ -1278,13 +1347,13 @@
         <v>45</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38">
@@ -1292,7 +1361,7 @@
         <v>43</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>14</v>
@@ -1301,13 +1370,13 @@
         <v>45</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39">
@@ -1315,7 +1384,7 @@
         <v>43</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
@@ -1324,13 +1393,13 @@
         <v>45</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40">
@@ -1338,7 +1407,7 @@
         <v>43</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
@@ -1347,13 +1416,13 @@
         <v>45</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41">
@@ -1361,7 +1430,7 @@
         <v>43</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
@@ -1370,44 +1439,44 @@
         <v>45</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
@@ -1416,21 +1485,21 @@
         <v>95</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
@@ -1439,21 +1508,21 @@
         <v>95</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
@@ -1462,21 +1531,21 @@
         <v>95</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
@@ -1485,44 +1554,44 @@
         <v>95</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>14</v>
@@ -1531,21 +1600,21 @@
         <v>95</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>14</v>
@@ -1554,21 +1623,21 @@
         <v>95</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>14</v>
@@ -1577,21 +1646,21 @@
         <v>95</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>14</v>
@@ -1600,21 +1669,21 @@
         <v>95</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>14</v>
@@ -1623,12 +1692,1116 @@
         <v>95</v>
       </c>
       <c r="E52" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="2" t="s">
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>23</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_046.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_046.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="148">
   <si>
     <t>Sezione</t>
   </si>
@@ -276,6 +276,30 @@
   </si>
   <si>
     <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>flag dichiarante</t>
@@ -490,7 +514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1387,7 +1411,7 @@
         <v>88</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>45</v>
@@ -1410,7 +1434,7 @@
         <v>90</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>45</v>
@@ -1433,7 +1457,7 @@
         <v>92</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>45</v>
@@ -1450,654 +1474,654 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C42" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E53" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
@@ -2106,136 +2130,136 @@
         <v>45</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>14</v>
@@ -2244,205 +2268,205 @@
         <v>45</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>14</v>
@@ -2451,283 +2475,283 @@
         <v>45</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2738,19 +2762,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2761,19 +2785,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2784,24 +2808,208 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="C104" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="2" t="s">
+      <c r="E108" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>23</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_046.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_046.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="147">
   <si>
     <t>Sezione</t>
   </si>
@@ -50,105 +50,93 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>193.12</t>
-  </si>
-  <si>
-    <t>194</t>
+    <t>193.3</t>
+  </si>
+  <si>
+    <t>Si puo' ignorare la sezione per</t>
+  </si>
+  <si>
+    <t>Formazione atto</t>
+  </si>
+  <si>
+    <t>Numero comunale</t>
+  </si>
+  <si>
+    <t>evento</t>
+  </si>
+  <si>
+    <t>numeroatto</t>
+  </si>
+  <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
+    <t>Data formazione</t>
+  </si>
+  <si>
+    <t>dataformazione</t>
+  </si>
+  <si>
+    <t>Ora formazione</t>
+  </si>
+  <si>
+    <t>ora</t>
+  </si>
+  <si>
+    <t>Minuti formazione</t>
+  </si>
+  <si>
+    <t>minuto</t>
+  </si>
+  <si>
+    <t>Tipo Evento Cittadinanza</t>
+  </si>
+  <si>
+    <t>evento.datiEventoCittadinanza</t>
+  </si>
+  <si>
+    <t>tipoEventoCittadinanza</t>
+  </si>
+  <si>
+    <t>Dati Generali</t>
+  </si>
+  <si>
+    <t>Data giuramento</t>
+  </si>
+  <si>
+    <t>dataGiuramento</t>
+  </si>
+  <si>
+    <t>Estremi giuramento</t>
+  </si>
+  <si>
+    <t>estremiGiuramento</t>
+  </si>
+  <si>
+    <t>Data Trascrizione</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneCittadinanza</t>
+  </si>
+  <si>
+    <t>dataComunicazione</t>
+  </si>
+  <si>
+    <t>Testo libero</t>
+  </si>
+  <si>
+    <t>testoLibero</t>
+  </si>
+  <si>
+    <t>Intestatario</t>
+  </si>
+  <si>
+    <t>Cognome</t>
   </si>
   <si>
     <t>NO</t>
   </si>
   <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Formazione atto</t>
-  </si>
-  <si>
-    <t>Numero comunale</t>
-  </si>
-  <si>
-    <t>evento</t>
-  </si>
-  <si>
-    <t>numeroatto</t>
-  </si>
-  <si>
-    <t>obbligatoria</t>
-  </si>
-  <si>
-    <t>Data formazione</t>
-  </si>
-  <si>
-    <t>dataformazione</t>
-  </si>
-  <si>
-    <t>Ora formazione</t>
-  </si>
-  <si>
-    <t>ora</t>
-  </si>
-  <si>
-    <t>Minuti formazione</t>
-  </si>
-  <si>
-    <t>minuto</t>
-  </si>
-  <si>
-    <t>Tipo Evento Cittadinanza</t>
-  </si>
-  <si>
-    <t>evento.datiEventoCittadinanza</t>
-  </si>
-  <si>
-    <t>tipoEventoCittadinanza</t>
-  </si>
-  <si>
-    <t>Dati Generali</t>
-  </si>
-  <si>
-    <t>Data giuramento</t>
-  </si>
-  <si>
-    <t>dataGiuramento</t>
-  </si>
-  <si>
-    <t>Estremi giuramento</t>
-  </si>
-  <si>
-    <t>estremiGiuramento</t>
-  </si>
-  <si>
-    <t>Data Trascrizione</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneCittadinanza</t>
-  </si>
-  <si>
-    <t>dataComunicazione</t>
-  </si>
-  <si>
-    <t>Testo libero</t>
-  </si>
-  <si>
-    <t>testoLibero</t>
-  </si>
-  <si>
-    <t>Intestatario</t>
-  </si>
-  <si>
-    <t>Cognome</t>
-  </si>
-  <si>
     <t>evento.intestatari[0]</t>
   </si>
   <si>
@@ -377,64 +365,73 @@
     <t>Intestatario (nuove generalità)</t>
   </si>
   <si>
+    <t>Atto da trascrivere</t>
+  </si>
+  <si>
+    <t>Data formazione documento</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneCittadinanza.attoEstero.enteEstero</t>
+  </si>
+  <si>
+    <t>dataTrascrizione</t>
+  </si>
+  <si>
+    <t>Estremi documento</t>
+  </si>
+  <si>
+    <t>estremiDocumento</t>
+  </si>
+  <si>
+    <t>Nome ente</t>
+  </si>
+  <si>
+    <t>nomeEnte</t>
+  </si>
+  <si>
+    <t>Stato ente</t>
+  </si>
+  <si>
+    <t>nazioneEnte</t>
+  </si>
+  <si>
+    <t>Stato ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeNazioneEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente</t>
+  </si>
+  <si>
+    <t>idProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Comune ente</t>
+  </si>
+  <si>
+    <t>idComuneEnte</t>
+  </si>
+  <si>
+    <t>Comune ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneEnte</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
     <t>Autorità mittente</t>
   </si>
   <si>
-    <t>Data formazione documento</t>
-  </si>
-  <si>
     <t>evento.trascrizioneCittadinanza.atto.enteEstero</t>
-  </si>
-  <si>
-    <t>dataTrascrizione</t>
-  </si>
-  <si>
-    <t>Estremi documento</t>
-  </si>
-  <si>
-    <t>estremiDocumento</t>
-  </si>
-  <si>
-    <t>Nome ente</t>
-  </si>
-  <si>
-    <t>nomeEnte</t>
-  </si>
-  <si>
-    <t>Stato ente</t>
-  </si>
-  <si>
-    <t>nazioneEnte</t>
-  </si>
-  <si>
-    <t>Stato ente - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeNazioneEnte</t>
-  </si>
-  <si>
-    <t>Provincia ente</t>
-  </si>
-  <si>
-    <t>idProvinciaEnte</t>
-  </si>
-  <si>
-    <t>Provincia ente - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaEnte</t>
-  </si>
-  <si>
-    <t>Comune ente</t>
-  </si>
-  <si>
-    <t>idComuneEnte</t>
-  </si>
-  <si>
-    <t>Comune ente - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneEnte</t>
   </si>
   <si>
     <t>Anagrafica Consolato</t>
@@ -514,7 +511,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H108"/>
+  <dimension ref="A1:H114"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -599,2418 +596,2556 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>133</v>
+        <v>64</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="C104" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="E105" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>23</v>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_046.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_046.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="148">
   <si>
     <t>Sezione</t>
   </si>
@@ -158,6 +158,12 @@
     <t>codiceFiscale</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -335,10 +341,7 @@
     <t>Comune di nascita - Descrizione</t>
   </si>
   <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -511,7 +514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H114"/>
+  <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -902,7 +905,7 @@
         <v>48</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>41</v>
@@ -994,7 +997,7 @@
         <v>56</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>41</v>
@@ -1109,7 +1112,7 @@
         <v>66</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>41</v>
@@ -1201,7 +1204,7 @@
         <v>74</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>41</v>
@@ -1408,7 +1411,7 @@
         <v>92</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>41</v>
@@ -1471,191 +1474,191 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C42" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="E46" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>105</v>
@@ -1664,21 +1667,21 @@
         <v>40</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>106</v>
@@ -1687,369 +1690,369 @@
         <v>40</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>40</v>
@@ -2058,21 +2061,21 @@
         <v>41</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
@@ -2081,67 +2084,67 @@
         <v>41</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
@@ -2150,90 +2153,90 @@
         <v>41</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>40</v>
@@ -2242,21 +2245,21 @@
         <v>41</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>40</v>
@@ -2265,90 +2268,90 @@
         <v>41</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -2357,90 +2360,90 @@
         <v>41</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>40</v>
@@ -2449,21 +2452,21 @@
         <v>41</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>40</v>
@@ -2472,21 +2475,21 @@
         <v>41</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>40</v>
@@ -2495,21 +2498,21 @@
         <v>41</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>40</v>
@@ -2518,21 +2521,21 @@
         <v>41</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>40</v>
@@ -2541,21 +2544,21 @@
         <v>41</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>40</v>
@@ -2564,82 +2567,82 @@
         <v>41</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="93">
@@ -2647,22 +2650,22 @@
         <v>117</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94">
@@ -2670,22 +2673,22 @@
         <v>117</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95">
@@ -2693,39 +2696,39 @@
         <v>117</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2736,19 +2739,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2759,19 +2762,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2782,19 +2785,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2805,19 +2808,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2828,19 +2831,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2851,19 +2854,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2874,19 +2877,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2897,19 +2900,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2920,19 +2923,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2943,19 +2946,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2966,19 +2969,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2989,19 +2992,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3012,19 +3015,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3035,19 +3038,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3058,19 +3061,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3081,19 +3084,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E112" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3104,19 +3107,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3127,24 +3130,93 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
+      <c r="B117" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E114" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" s="2" t="s">
+      <c r="E117" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_046.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_046.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="149">
   <si>
     <t>Sezione</t>
   </si>
@@ -47,10 +47,16 @@
     <t/>
   </si>
   <si>
+    <t>Richiesta di trascrizione</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
-    <t>193.3</t>
+    <t>193.23</t>
   </si>
   <si>
     <t>Si puo' ignorare la sezione per</t>
@@ -113,7 +119,7 @@
     <t>estremiGiuramento</t>
   </si>
   <si>
-    <t>Data Trascrizione</t>
+    <t>Data Richiesta Trascrizione</t>
   </si>
   <si>
     <t>evento.trascrizioneCittadinanza</t>
@@ -132,9 +138,6 @@
   </si>
   <si>
     <t>Cognome</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>evento.intestatari[0]</t>
@@ -514,7 +517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H117"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -577,13 +580,13 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -599,77 +602,77 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
@@ -678,7 +681,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
@@ -687,12 +690,12 @@
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -701,7 +704,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>24</v>
@@ -710,12 +713,12 @@
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>25</v>
@@ -724,44 +727,44 @@
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>31</v>
@@ -770,7 +773,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>32</v>
@@ -779,12 +782,12 @@
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>33</v>
@@ -793,30 +796,30 @@
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>37</v>
@@ -825,817 +828,817 @@
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>104</v>
@@ -1644,1074 +1647,1074 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="96">
@@ -2719,220 +2722,220 @@
         <v>118</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>138</v>
@@ -2941,283 +2944,306 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="E115" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E117" s="2" t="s">
+      <c r="B118" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F117" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>18</v>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_046.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_046.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="151">
   <si>
     <t>Sezione</t>
   </si>
@@ -231,6 +231,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato Residenza</t>
@@ -517,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1207,7 +1213,7 @@
         <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>42</v>
@@ -1230,7 +1236,7 @@
         <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>42</v>
@@ -1460,7 +1466,7 @@
         <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>42</v>
@@ -1523,375 +1529,375 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C44" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="E49" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>113</v>
@@ -1900,21 +1906,21 @@
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>114</v>
@@ -1923,21 +1929,21 @@
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>115</v>
@@ -1946,21 +1952,21 @@
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>116</v>
@@ -1969,21 +1975,21 @@
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>117</v>
@@ -1992,139 +1998,139 @@
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
@@ -2133,90 +2139,90 @@
         <v>42</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
@@ -2225,21 +2231,21 @@
         <v>42</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
@@ -2248,67 +2254,67 @@
         <v>42</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
@@ -2317,21 +2323,21 @@
         <v>42</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
@@ -2340,21 +2346,21 @@
         <v>42</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
@@ -2363,67 +2369,67 @@
         <v>42</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
@@ -2432,21 +2438,21 @@
         <v>42</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -2455,21 +2461,21 @@
         <v>42</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
@@ -2478,21 +2484,21 @@
         <v>42</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
@@ -2501,21 +2507,21 @@
         <v>42</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
@@ -2524,21 +2530,21 @@
         <v>42</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
@@ -2547,21 +2553,21 @@
         <v>42</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
@@ -2570,21 +2576,21 @@
         <v>42</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
@@ -2593,21 +2599,21 @@
         <v>42</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
@@ -2616,21 +2622,21 @@
         <v>42</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
@@ -2639,21 +2645,21 @@
         <v>42</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
@@ -2662,168 +2668,168 @@
         <v>42</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2834,19 +2840,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2857,19 +2863,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2880,19 +2886,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2903,19 +2909,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2926,19 +2932,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2949,19 +2955,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>67</v>
+        <v>135</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2972,19 +2978,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2995,19 +3001,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3018,19 +3024,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3041,19 +3047,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3064,19 +3070,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3087,19 +3093,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3110,19 +3116,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3133,19 +3139,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3156,19 +3162,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3179,19 +3185,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3202,19 +3208,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3225,24 +3231,93 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="C120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E118" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="2" t="s">
+      <c r="E121" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_046.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_046.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="153">
   <si>
     <t>Sezione</t>
   </si>
@@ -351,6 +351,12 @@
   </si>
   <si>
     <t>Nazionalità - Descrizione</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -523,7 +529,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H122"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1877,7 +1883,7 @@
         <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
@@ -1886,7 +1892,7 @@
         <v>104</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1900,7 +1906,7 @@
         <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
@@ -1909,7 +1915,7 @@
         <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1923,7 +1929,7 @@
         <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
@@ -1932,7 +1938,7 @@
         <v>104</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1946,7 +1952,7 @@
         <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
@@ -1955,7 +1961,7 @@
         <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1969,7 +1975,7 @@
         <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
@@ -1978,7 +1984,7 @@
         <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1992,7 +1998,7 @@
         <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
@@ -2001,7 +2007,7 @@
         <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2015,7 +2021,7 @@
         <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
@@ -2024,7 +2030,7 @@
         <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2038,7 +2044,7 @@
         <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
@@ -2047,7 +2053,7 @@
         <v>104</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2061,16 +2067,16 @@
         <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2084,7 +2090,7 @@
         <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
@@ -2093,7 +2099,7 @@
         <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2107,7 +2113,7 @@
         <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
@@ -2116,7 +2122,7 @@
         <v>104</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2127,22 +2133,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>105</v>
@@ -2150,22 +2156,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>105</v>
@@ -2173,19 +2179,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2196,10 +2202,10 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
@@ -2208,7 +2214,7 @@
         <v>42</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2219,19 +2225,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2242,10 +2248,10 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
@@ -2254,7 +2260,7 @@
         <v>42</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2265,10 +2271,10 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
@@ -2277,7 +2283,7 @@
         <v>42</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2288,10 +2294,10 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -2300,7 +2306,7 @@
         <v>42</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2311,19 +2317,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2334,10 +2340,10 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
@@ -2346,7 +2352,7 @@
         <v>42</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2357,10 +2363,10 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
@@ -2369,7 +2375,7 @@
         <v>42</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2380,10 +2386,10 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
@@ -2392,7 +2398,7 @@
         <v>42</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2403,10 +2409,10 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
@@ -2415,7 +2421,7 @@
         <v>42</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2426,19 +2432,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2449,10 +2455,10 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -2461,7 +2467,7 @@
         <v>42</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2472,19 +2478,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2495,10 +2501,10 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
@@ -2507,7 +2513,7 @@
         <v>42</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2518,10 +2524,10 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
@@ -2530,7 +2536,7 @@
         <v>42</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2541,10 +2547,10 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
@@ -2553,7 +2559,7 @@
         <v>42</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2564,10 +2570,10 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
@@ -2576,7 +2582,7 @@
         <v>42</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2587,10 +2593,10 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
@@ -2599,7 +2605,7 @@
         <v>42</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2610,10 +2616,10 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
@@ -2622,7 +2628,7 @@
         <v>42</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2633,10 +2639,10 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
@@ -2645,7 +2651,7 @@
         <v>42</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2656,10 +2662,10 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
@@ -2668,7 +2674,7 @@
         <v>42</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2679,10 +2685,10 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
@@ -2691,7 +2697,7 @@
         <v>42</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2702,10 +2708,10 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
@@ -2714,7 +2720,7 @@
         <v>42</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2725,10 +2731,10 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
@@ -2737,7 +2743,7 @@
         <v>42</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2748,19 +2754,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2771,10 +2777,10 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -2783,7 +2789,7 @@
         <v>42</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2794,10 +2800,10 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
@@ -2806,7 +2812,7 @@
         <v>42</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2817,39 +2823,39 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>126</v>
@@ -2863,7 +2869,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>127</v>
@@ -2872,7 +2878,7 @@
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>128</v>
@@ -2886,7 +2892,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>129</v>
@@ -2895,7 +2901,7 @@
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>130</v>
@@ -2909,7 +2915,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>131</v>
@@ -2918,7 +2924,7 @@
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>132</v>
@@ -2932,16 +2938,16 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>134</v>
@@ -2955,7 +2961,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>135</v>
@@ -2964,7 +2970,7 @@
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>136</v>
@@ -2978,7 +2984,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>137</v>
@@ -2987,7 +2993,7 @@
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>138</v>
@@ -3001,7 +3007,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>139</v>
@@ -3010,7 +3016,7 @@
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>140</v>
@@ -3024,19 +3030,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3047,19 +3053,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3070,16 +3076,16 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>126</v>
@@ -3093,7 +3099,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>127</v>
@@ -3102,7 +3108,7 @@
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>128</v>
@@ -3116,7 +3122,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>129</v>
@@ -3125,7 +3131,7 @@
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>130</v>
@@ -3139,7 +3145,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>131</v>
@@ -3148,7 +3154,7 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>132</v>
@@ -3162,16 +3168,16 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>134</v>
@@ -3185,7 +3191,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>135</v>
@@ -3194,7 +3200,7 @@
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>136</v>
@@ -3208,7 +3214,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>137</v>
@@ -3217,7 +3223,7 @@
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>138</v>
@@ -3231,7 +3237,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>139</v>
@@ -3240,7 +3246,7 @@
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>140</v>
@@ -3254,19 +3260,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3277,7 +3283,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>146</v>
@@ -3286,7 +3292,7 @@
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>147</v>
@@ -3300,24 +3306,47 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="C121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E121" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="2" t="s">
+      <c r="E122" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_046.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_046.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="178">
   <si>
     <t>Sezione</t>
   </si>
@@ -381,6 +381,81 @@
   </si>
   <si>
     <t>Intestatario (nuove generalità)</t>
+  </si>
+  <si>
+    <t>Atto nascita intestatario</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>evento.eventoCollegato</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
   </si>
   <si>
     <t>Atto da trascrivere</t>
@@ -529,17 +604,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H122"/>
+  <dimension ref="A1:H134"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="29.484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="32.41796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="56.62109375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="55.74609375" customWidth="true" bestFit="true"/>
   </cols>
@@ -2852,7 +2927,7 @@
         <v>124</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>125</v>
@@ -2864,7 +2939,7 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
     </row>
     <row r="102">
@@ -2872,22 +2947,22 @@
         <v>123</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>125</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
     </row>
     <row r="103">
@@ -2895,22 +2970,22 @@
         <v>123</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>125</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
     </row>
     <row r="104">
@@ -2918,22 +2993,22 @@
         <v>123</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>125</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
     </row>
     <row r="105">
@@ -2941,22 +3016,22 @@
         <v>123</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>125</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
     </row>
     <row r="106">
@@ -2964,7 +3039,7 @@
         <v>123</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
@@ -2973,13 +3048,13 @@
         <v>125</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
     </row>
     <row r="107">
@@ -3002,7 +3077,7 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
     </row>
     <row r="108">
@@ -3019,13 +3094,13 @@
         <v>125</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109">
@@ -3033,7 +3108,7 @@
         <v>123</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
@@ -3042,13 +3117,13 @@
         <v>125</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
     </row>
     <row r="110">
@@ -3056,7 +3131,7 @@
         <v>123</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
@@ -3071,70 +3146,70 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E111" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3145,19 +3220,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3168,19 +3243,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3191,19 +3266,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3214,19 +3289,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3237,19 +3312,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3260,19 +3335,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3283,19 +3358,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3306,19 +3381,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3329,24 +3404,300 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="E122" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="2" t="s">
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E122" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G122" s="2" t="s">
+      <c r="E134" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_046.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_046.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="179">
   <si>
     <t>Sezione</t>
   </si>
@@ -146,9 +146,6 @@
     <t>cognome</t>
   </si>
   <si>
-    <t>evento.trascrizioneCittadinanza.flagCambioGeneralita,=,true</t>
-  </si>
-  <si>
     <t>Nome</t>
   </si>
   <si>
@@ -303,6 +300,12 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Residenza al momento dell'evento originario</t>
+  </si>
+  <si>
+    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>flag dichiarante</t>
@@ -604,14 +607,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H134"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="29.484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="56.62109375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
@@ -961,7 +964,7 @@
         <v>14</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
@@ -969,22 +972,22 @@
         <v>40</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
@@ -992,22 +995,22 @@
         <v>40</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
@@ -1015,22 +1018,22 @@
         <v>40</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
@@ -1038,22 +1041,22 @@
         <v>40</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
@@ -1061,22 +1064,22 @@
         <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -1084,22 +1087,22 @@
         <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -1107,22 +1110,22 @@
         <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
@@ -1130,22 +1133,22 @@
         <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1156,22 @@
         <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
@@ -1176,22 +1179,22 @@
         <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
@@ -1199,22 +1202,22 @@
         <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
@@ -1222,22 +1225,22 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
@@ -1245,22 +1248,22 @@
         <v>40</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
@@ -1268,22 +1271,22 @@
         <v>40</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
@@ -1291,22 +1294,22 @@
         <v>40</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
@@ -1314,22 +1317,22 @@
         <v>40</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
@@ -1337,22 +1340,22 @@
         <v>40</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
@@ -1360,22 +1363,22 @@
         <v>40</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
@@ -1383,22 +1386,22 @@
         <v>40</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
@@ -1406,22 +1409,22 @@
         <v>40</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
@@ -1429,22 +1432,22 @@
         <v>40</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
@@ -1452,22 +1455,22 @@
         <v>40</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
@@ -1475,22 +1478,22 @@
         <v>40</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
@@ -1498,22 +1501,22 @@
         <v>40</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40">
@@ -1521,22 +1524,22 @@
         <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41">
@@ -1544,22 +1547,22 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
@@ -1567,22 +1570,22 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
@@ -1590,22 +1593,22 @@
         <v>40</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44">
@@ -1613,165 +1616,165 @@
         <v>40</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>107</v>
@@ -1780,44 +1783,44 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>109</v>
@@ -1826,21 +1829,21 @@
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>110</v>
@@ -1849,21 +1852,21 @@
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>111</v>
@@ -1872,159 +1875,159 @@
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>116</v>
@@ -2033,21 +2036,21 @@
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>117</v>
@@ -2056,21 +2059,21 @@
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>118</v>
@@ -2079,21 +2082,21 @@
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>119</v>
@@ -2102,21 +2105,21 @@
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>120</v>
@@ -2125,21 +2128,21 @@
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>121</v>
@@ -2148,162 +2151,162 @@
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
@@ -2312,44 +2315,44 @@
         <v>42</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
@@ -2358,21 +2361,21 @@
         <v>42</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -2381,21 +2384,21 @@
         <v>42</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -2404,44 +2407,44 @@
         <v>42</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
@@ -2450,21 +2453,21 @@
         <v>42</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
@@ -2473,21 +2476,21 @@
         <v>42</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
@@ -2496,21 +2499,21 @@
         <v>42</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
@@ -2519,44 +2522,44 @@
         <v>42</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
@@ -2565,44 +2568,44 @@
         <v>42</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
@@ -2611,21 +2614,21 @@
         <v>42</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
@@ -2634,21 +2637,21 @@
         <v>42</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
@@ -2657,21 +2660,21 @@
         <v>42</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
@@ -2680,21 +2683,21 @@
         <v>42</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
@@ -2703,21 +2706,21 @@
         <v>42</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
@@ -2726,21 +2729,21 @@
         <v>42</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
@@ -2749,21 +2752,21 @@
         <v>42</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
@@ -2772,21 +2775,21 @@
         <v>42</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
@@ -2795,21 +2798,21 @@
         <v>42</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
@@ -2818,21 +2821,21 @@
         <v>42</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
@@ -2841,82 +2844,82 @@
         <v>42</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="101">
@@ -2924,142 +2927,142 @@
         <v>123</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>137</v>
@@ -3068,44 +3071,44 @@
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>140</v>
@@ -3114,125 +3117,125 @@
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3243,19 +3246,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3266,19 +3269,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3289,19 +3292,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3312,19 +3315,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3335,19 +3338,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3358,19 +3361,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3381,19 +3384,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3404,16 +3407,16 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>168</v>
@@ -3427,19 +3430,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3450,19 +3453,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3473,19 +3476,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3496,19 +3499,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3519,19 +3522,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3542,19 +3545,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3565,19 +3568,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3588,19 +3591,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3611,19 +3614,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3634,19 +3637,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E132" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3657,19 +3660,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3680,24 +3683,47 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" s="2" t="s">
+      <c r="B135" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E134" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G134" s="2" t="s">
+      <c r="E135" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_046.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_046.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="178">
   <si>
     <t>Sezione</t>
   </si>
@@ -146,6 +146,9 @@
     <t>cognome</t>
   </si>
   <si>
+    <t>evento.trascrizioneCittadinanza.flagCambioGeneralita,=,true</t>
+  </si>
+  <si>
     <t>Nome</t>
   </si>
   <si>
@@ -300,12 +303,6 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
-  </si>
-  <si>
-    <t>Residenza al momento dell'evento originario</t>
-  </si>
-  <si>
-    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>flag dichiarante</t>
@@ -607,14 +604,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H135"/>
+  <dimension ref="A1:H134"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="29.484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="56.62109375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
@@ -964,7 +961,7 @@
         <v>14</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +969,22 @@
         <v>40</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="17">
@@ -995,7 +992,7 @@
         <v>40</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>12</v>
@@ -1004,13 +1001,13 @@
         <v>42</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18">
@@ -1018,7 +1015,7 @@
         <v>40</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>12</v>
@@ -1027,13 +1024,13 @@
         <v>42</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -1041,7 +1038,7 @@
         <v>40</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
@@ -1050,13 +1047,13 @@
         <v>42</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20">
@@ -1064,7 +1061,7 @@
         <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
@@ -1073,13 +1070,13 @@
         <v>42</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21">
@@ -1087,7 +1084,7 @@
         <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
@@ -1096,13 +1093,13 @@
         <v>42</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22">
@@ -1110,7 +1107,7 @@
         <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
@@ -1119,13 +1116,13 @@
         <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
@@ -1133,7 +1130,7 @@
         <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>12</v>
@@ -1142,13 +1139,13 @@
         <v>42</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
@@ -1156,7 +1153,7 @@
         <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>12</v>
@@ -1165,13 +1162,13 @@
         <v>42</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25">
@@ -1179,7 +1176,7 @@
         <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>12</v>
@@ -1188,13 +1185,13 @@
         <v>42</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26">
@@ -1202,7 +1199,7 @@
         <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>12</v>
@@ -1211,13 +1208,13 @@
         <v>42</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27">
@@ -1225,7 +1222,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>12</v>
@@ -1234,13 +1231,13 @@
         <v>42</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28">
@@ -1248,7 +1245,7 @@
         <v>40</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
@@ -1257,13 +1254,13 @@
         <v>42</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29">
@@ -1271,7 +1268,7 @@
         <v>40</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
@@ -1280,13 +1277,13 @@
         <v>42</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30">
@@ -1294,7 +1291,7 @@
         <v>40</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>12</v>
@@ -1303,13 +1300,13 @@
         <v>42</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31">
@@ -1317,7 +1314,7 @@
         <v>40</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>12</v>
@@ -1326,13 +1323,13 @@
         <v>42</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32">
@@ -1340,7 +1337,7 @@
         <v>40</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>12</v>
@@ -1349,13 +1346,13 @@
         <v>42</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33">
@@ -1363,7 +1360,7 @@
         <v>40</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>12</v>
@@ -1372,13 +1369,13 @@
         <v>42</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1383,7 @@
         <v>40</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
@@ -1395,13 +1392,13 @@
         <v>42</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35">
@@ -1409,7 +1406,7 @@
         <v>40</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>12</v>
@@ -1418,13 +1415,13 @@
         <v>42</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36">
@@ -1432,7 +1429,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>12</v>
@@ -1441,13 +1438,13 @@
         <v>42</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37">
@@ -1455,7 +1452,7 @@
         <v>40</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>12</v>
@@ -1464,13 +1461,13 @@
         <v>42</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38">
@@ -1478,7 +1475,7 @@
         <v>40</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>12</v>
@@ -1487,13 +1484,13 @@
         <v>42</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
@@ -1501,7 +1498,7 @@
         <v>40</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
@@ -1510,13 +1507,13 @@
         <v>42</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40">
@@ -1524,7 +1521,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>12</v>
@@ -1533,13 +1530,13 @@
         <v>42</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41">
@@ -1547,7 +1544,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>12</v>
@@ -1556,13 +1553,13 @@
         <v>42</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42">
@@ -1570,22 +1567,22 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43">
@@ -1593,7 +1590,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
@@ -1602,13 +1599,13 @@
         <v>42</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44">
@@ -1616,7 +1613,7 @@
         <v>40</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
@@ -1625,156 +1622,156 @@
         <v>42</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E46" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E47" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E48" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>107</v>
@@ -1783,44 +1780,44 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>109</v>
@@ -1829,21 +1826,21 @@
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>110</v>
@@ -1852,21 +1849,21 @@
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>111</v>
@@ -1875,159 +1872,159 @@
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E60" s="2" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E61" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>116</v>
@@ -2036,21 +2033,21 @@
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>117</v>
@@ -2059,21 +2056,21 @@
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>118</v>
@@ -2082,21 +2079,21 @@
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>119</v>
@@ -2105,21 +2102,21 @@
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>120</v>
@@ -2128,21 +2125,21 @@
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>121</v>
@@ -2151,162 +2148,162 @@
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E68" s="2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E69" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E70" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
@@ -2315,44 +2312,44 @@
         <v>42</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
@@ -2361,21 +2358,21 @@
         <v>42</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -2384,21 +2381,21 @@
         <v>42</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -2407,44 +2404,44 @@
         <v>42</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
@@ -2453,21 +2450,21 @@
         <v>42</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
@@ -2476,21 +2473,21 @@
         <v>42</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
@@ -2499,21 +2496,21 @@
         <v>42</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
@@ -2522,44 +2519,44 @@
         <v>42</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
@@ -2568,44 +2565,44 @@
         <v>42</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
@@ -2614,21 +2611,21 @@
         <v>42</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
@@ -2637,21 +2634,21 @@
         <v>42</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
@@ -2660,21 +2657,21 @@
         <v>42</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
@@ -2683,21 +2680,21 @@
         <v>42</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
@@ -2706,21 +2703,21 @@
         <v>42</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
@@ -2729,21 +2726,21 @@
         <v>42</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
@@ -2752,21 +2749,21 @@
         <v>42</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
@@ -2775,21 +2772,21 @@
         <v>42</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
@@ -2798,21 +2795,21 @@
         <v>42</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
@@ -2821,21 +2818,21 @@
         <v>42</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
@@ -2844,44 +2841,44 @@
         <v>42</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
@@ -2890,21 +2887,21 @@
         <v>42</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
@@ -2913,13 +2910,13 @@
         <v>42</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="101">
@@ -2927,142 +2924,142 @@
         <v>123</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="E102" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>137</v>
@@ -3071,44 +3068,44 @@
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>139</v>
+        <v>22</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>140</v>
@@ -3117,125 +3114,125 @@
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>128</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="E114" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3246,19 +3243,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3269,19 +3266,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3292,19 +3289,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3315,19 +3312,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3338,19 +3335,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3361,19 +3358,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3384,19 +3381,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3407,16 +3404,16 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>168</v>
@@ -3430,19 +3427,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3453,19 +3450,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="E124" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3476,19 +3473,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="E125" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3499,19 +3496,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="E126" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3522,19 +3519,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="E127" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3545,19 +3542,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="E128" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3568,19 +3565,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="E129" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3591,19 +3588,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="E130" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3614,19 +3611,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="E131" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3637,19 +3634,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="E132" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3660,19 +3657,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="E133" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3683,47 +3680,24 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>171</v>
+        <v>36</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_046.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_046.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="183">
   <si>
     <t>Sezione</t>
   </si>
@@ -168,6 +168,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -607,7 +619,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H135"/>
+  <dimension ref="A1:H141"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1067,7 +1079,7 @@
         <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>42</v>
@@ -1090,7 +1102,7 @@
         <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>42</v>
@@ -1136,7 +1148,7 @@
         <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>42</v>
@@ -1159,7 +1171,7 @@
         <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>42</v>
@@ -1251,7 +1263,7 @@
         <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>42</v>
@@ -1274,7 +1286,7 @@
         <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>42</v>
@@ -1297,7 +1309,7 @@
         <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>42</v>
@@ -1320,7 +1332,7 @@
         <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>42</v>
@@ -1596,7 +1608,7 @@
         <v>98</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>42</v>
@@ -1619,7 +1631,7 @@
         <v>100</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>42</v>
@@ -1659,421 +1671,421 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C46" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>118</v>
@@ -2082,44 +2094,44 @@
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>120</v>
@@ -2128,21 +2140,21 @@
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>121</v>
@@ -2151,21 +2163,21 @@
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>122</v>
@@ -2174,208 +2186,208 @@
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -2384,90 +2396,90 @@
         <v>42</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
@@ -2476,21 +2488,21 @@
         <v>42</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
@@ -2499,67 +2511,67 @@
         <v>42</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
@@ -2568,44 +2580,44 @@
         <v>42</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
@@ -2614,21 +2626,21 @@
         <v>42</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
@@ -2637,21 +2649,21 @@
         <v>42</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
@@ -2660,21 +2672,21 @@
         <v>42</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
@@ -2683,67 +2695,67 @@
         <v>42</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
@@ -2752,21 +2764,21 @@
         <v>42</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
@@ -2775,21 +2787,21 @@
         <v>42</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
@@ -2798,21 +2810,21 @@
         <v>42</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
@@ -2821,21 +2833,21 @@
         <v>42</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
@@ -2844,21 +2856,21 @@
         <v>42</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
@@ -2867,513 +2879,513 @@
         <v>42</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>154</v>
+        <v>22</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3384,19 +3396,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3407,19 +3419,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3430,19 +3442,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3453,19 +3465,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3476,19 +3488,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3499,19 +3511,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="E126" s="2" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3522,19 +3534,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3545,19 +3557,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3568,19 +3580,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>161</v>
+        <v>70</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3591,19 +3603,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3614,19 +3626,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3637,19 +3649,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3660,19 +3672,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3683,19 +3695,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3706,24 +3718,162 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="C139" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135" s="2" t="s">
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E135" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135" s="2" t="s">
+      <c r="E141" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
         <v>20</v>
       </c>
     </row>
